--- a/REGULAR/AYCARDO JOEL.xlsx
+++ b/REGULAR/AYCARDO JOEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALMA\Desktop\LEAVE CARD11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244662A9-7446-434B-A132-9DDD0A693542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A925C-E8F7-4049-92F4-0BF7773DD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -174,9 +166,6 @@
   </si>
   <si>
     <t>TOPS</t>
-  </si>
-  <si>
-    <t>02/161995</t>
   </si>
   <si>
     <t>2018</t>
@@ -236,6 +225,18 @@
   </si>
   <si>
     <t>11/22-26/2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>1/16-20/2023</t>
   </si>
 </sst>
 </file>
@@ -611,6 +612,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,9 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,7 +926,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K162" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1254,91 +1255,91 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A54" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A70"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="50"/>
+      <c r="F3" s="56">
+        <v>34746</v>
+      </c>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1346,7 +1347,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1359,24 +1360,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1420,7 +1421,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>207.59399999999999</v>
+        <v>220.09399999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1430,12 +1431,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>392.84100000000001</v>
+        <v>410.34100000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1455,9 +1456,9 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>45</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1473,7 +1474,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1493,7 +1494,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1513,7 +1514,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1533,7 +1534,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1553,12 +1554,12 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43221</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="42">
         <v>1.25</v>
@@ -1576,10 +1577,10 @@
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1599,7 +1600,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -1619,7 +1620,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1639,7 +1640,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1659,7 +1660,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1679,12 +1680,12 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="42">
         <v>1.25</v>
@@ -1703,9 +1704,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -1721,7 +1722,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1741,7 +1742,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1761,7 +1762,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1781,7 +1782,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1801,12 +1802,12 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -1824,10 +1825,10 @@
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -1847,7 +1848,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -1867,7 +1868,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -1887,7 +1888,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -1907,7 +1908,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -1927,7 +1928,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -1947,12 +1948,12 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -1971,9 +1972,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>51</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1989,12 +1990,12 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -2012,10 +2013,10 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -2035,7 +2036,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2075,7 +2076,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2095,7 +2096,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2135,7 +2136,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2155,7 +2156,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2175,7 +2176,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2195,7 +2196,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2215,12 +2216,12 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -2239,9 +2240,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2257,7 +2258,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2277,7 +2278,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2297,7 +2298,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2317,7 +2318,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2357,7 +2358,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -2377,7 +2378,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -2397,7 +2398,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -2417,7 +2418,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -2437,7 +2438,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -2457,12 +2458,12 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -2480,11 +2481,13 @@
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="40">
+        <v>44531</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -2499,8 +2502,10 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="48" t="s">
+        <v>57</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -2515,200 +2520,252 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="40">
+        <v>44562</v>
+      </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>44593</v>
+      </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="40">
+        <v>44621</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="40">
+        <v>44652</v>
+      </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="40">
+        <v>44682</v>
+      </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="40">
+        <v>44713</v>
+      </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="40">
+        <v>44743</v>
+      </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="40">
+        <v>44774</v>
+      </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="40">
+        <v>44805</v>
+      </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="40">
+        <v>44835</v>
+      </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40">
+        <v>44866</v>
+      </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="48" t="s">
+        <v>58</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -2723,40 +2780,56 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="39">
+        <v>5</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="K76" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -2771,8 +2844,10 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -2787,8 +2862,10 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -2803,8 +2880,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -2819,8 +2898,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2835,8 +2916,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -2851,8 +2934,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -2867,8 +2952,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -2883,8 +2970,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -2899,8 +2988,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -2915,8 +3006,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45292</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -2931,8 +3024,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45323</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -2947,8 +3042,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45352</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -2963,8 +3060,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45383</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -2979,8 +3078,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45413</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -2995,8 +3096,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45444</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3011,8 +3114,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45474</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3027,8 +3132,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45505</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3043,8 +3150,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45536</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3059,8 +3168,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45566</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3075,8 +3186,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45597</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3091,8 +3204,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45627</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3107,8 +3222,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45658</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3123,8 +3240,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45689</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3139,8 +3258,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45717</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3155,8 +3276,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45748</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3171,8 +3294,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45778</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3187,8 +3312,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45809</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3203,8 +3330,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45839</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3219,8 +3348,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45870</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3235,8 +3366,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45901</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3251,8 +3384,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45931</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3267,8 +3402,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45962</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3283,8 +3420,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45992</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3299,8 +3438,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>46023</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3315,8 +3456,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>46054</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3331,8 +3474,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>46082</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3347,8 +3492,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>46113</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3363,8 +3510,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>46143</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3379,8 +3528,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>46174</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3395,8 +3546,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>46204</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3411,8 +3564,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>46235</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3427,8 +3582,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>46266</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3443,8 +3600,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>46296</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3459,8 +3618,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>46327</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3475,8 +3636,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>46357</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3491,8 +3654,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>46388</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3507,8 +3672,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
+        <v>46419</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3523,8 +3690,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40">
+        <v>46447</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3539,8 +3708,10 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40">
+        <v>46478</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3555,8 +3726,10 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40">
+        <v>46508</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3571,8 +3744,10 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40">
+        <v>46539</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -3587,21 +3762,599 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40">
+        <v>46722</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40">
+        <v>46753</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="40">
+        <v>46784</v>
+      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40">
+        <v>46813</v>
+      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40">
+        <v>46844</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
+        <v>46874</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40">
+        <v>46935</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40">
+        <v>46966</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="40">
+        <v>46997</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40">
+        <v>47027</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40">
+        <v>47058</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="40">
+        <v>47088</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="40">
+        <v>47119</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="40">
+        <v>47150</v>
+      </c>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="40">
+        <v>47178</v>
+      </c>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="40">
+        <v>47209</v>
+      </c>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="40">
+        <v>47239</v>
+      </c>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="40">
+        <v>47270</v>
+      </c>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="40">
+        <v>47300</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="40">
+        <v>47331</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="40">
+        <v>47362</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="40">
+        <v>47392</v>
+      </c>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40">
+        <v>47423</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="40">
+        <v>47453</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="40">
+        <v>47484</v>
+      </c>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="39"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="40">
+        <v>47515</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="40">
+        <v>47543</v>
+      </c>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3651,34 +4404,34 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="56" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3707,7 +4460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>205.09399999999999</v>
       </c>
@@ -3731,17 +4484,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3755,14 +4508,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3789,7 +4542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3815,7 +4568,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3841,7 +4594,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3867,7 +4620,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3893,7 +4646,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -3919,7 +4672,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -3945,7 +4698,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -3971,7 +4724,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -3991,7 +4744,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4011,7 +4764,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4031,7 +4784,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4052,7 +4805,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4073,7 +4826,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4094,7 +4847,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4115,7 +4868,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4136,7 +4889,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4157,7 +4910,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4178,7 +4931,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4199,7 +4952,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4220,7 +4973,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4241,7 +4994,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4262,7 +5015,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4283,7 +5036,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4304,7 +5057,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4325,7 +5078,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4346,7 +5099,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4367,7 +5120,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4388,7 +5141,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4409,7 +5162,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4430,7 +5183,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4451,7 +5204,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4460,7 +5213,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4469,7 +5222,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4478,7 +5231,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4487,7 +5240,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4496,7 +5249,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4505,7 +5258,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4514,7 +5267,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4523,7 +5276,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4532,7 +5285,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4541,7 +5294,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4550,7 +5303,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4559,7 +5312,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4568,7 +5321,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4577,7 +5330,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4586,7 +5339,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4595,7 +5348,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4604,7 +5357,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4613,7 +5366,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4622,7 +5375,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4631,7 +5384,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4640,7 +5393,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4649,7 +5402,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4658,7 +5411,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4667,7 +5420,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4676,7 +5429,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4685,7 +5438,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4694,7 +5447,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4703,7 +5456,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4712,7 +5465,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
